--- a/docs/расчеты размера.xlsx
+++ b/docs/расчеты размера.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\admin\Documents\discords_discovery\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA503A39-503F-4F60-AC70-360F6284C37B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="8736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,10 +51,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,13 +100,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -386,25 +392,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" style="3"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" style="3"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.5546875" style="3"/>
+    <col min="8" max="16384" width="9.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1000000</v>
       </c>
@@ -438,23 +444,23 @@
         <v>128</v>
       </c>
       <c r="D2" s="4">
-        <f>A2-C2+1</f>
+        <f t="shared" ref="D2:D8" si="0">A2-C2+1</f>
         <v>999873</v>
       </c>
       <c r="E2" s="4">
-        <f>D2*D2</f>
+        <f t="shared" ref="E2:E12" si="1">D2*D2</f>
         <v>999746016129</v>
       </c>
       <c r="F2" s="4">
-        <f>C2*D2</f>
+        <f t="shared" ref="F2:F8" si="2">C2*D2</f>
         <v>127983744</v>
       </c>
       <c r="G2" s="5">
-        <f>(E2+F2)*B2/1000000000</f>
+        <f t="shared" ref="G2:G8" si="3">(E2+F2)*B2/1000000000</f>
         <v>3999.495999492</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>500000</v>
       </c>
@@ -465,23 +471,23 @@
         <v>1024</v>
       </c>
       <c r="D3" s="4">
-        <f>A3-C3+1</f>
+        <f t="shared" si="0"/>
         <v>498977</v>
       </c>
       <c r="E3" s="4">
-        <f>D3*D3</f>
+        <f t="shared" si="1"/>
         <v>248978046529</v>
       </c>
       <c r="F3" s="4">
-        <f>C3*D3</f>
+        <f t="shared" si="2"/>
         <v>510952448</v>
       </c>
       <c r="G3" s="5">
-        <f>(E3+F3)*B3/1000000000</f>
+        <f t="shared" si="3"/>
         <v>997.95599590799998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45000</v>
       </c>
@@ -492,23 +498,23 @@
         <v>1024</v>
       </c>
       <c r="D4" s="4">
-        <f>A4-C4+1</f>
+        <f t="shared" si="0"/>
         <v>43977</v>
       </c>
       <c r="E4" s="4">
-        <f>D4*D4</f>
+        <f t="shared" si="1"/>
         <v>1933976529</v>
       </c>
       <c r="F4" s="4">
-        <f>C4*D4</f>
+        <f t="shared" si="2"/>
         <v>45032448</v>
       </c>
       <c r="G4" s="5">
-        <f>(E4+F4)*B4/1000000000</f>
+        <f t="shared" si="3"/>
         <v>7.9160359079999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45000</v>
       </c>
@@ -519,23 +525,23 @@
         <v>128</v>
       </c>
       <c r="D5" s="4">
-        <f>A5-C5+1</f>
+        <f t="shared" si="0"/>
         <v>44873</v>
       </c>
       <c r="E5" s="4">
-        <f>D5*D5</f>
+        <f t="shared" si="1"/>
         <v>2013586129</v>
       </c>
       <c r="F5" s="4">
-        <f>C5*D5</f>
+        <f t="shared" si="2"/>
         <v>5743744</v>
       </c>
       <c r="G5" s="5">
-        <f>(E5+F5)*B5/1000000000</f>
+        <f t="shared" si="3"/>
         <v>8.0773194920000009</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43200</v>
       </c>
@@ -546,23 +552,23 @@
         <v>7</v>
       </c>
       <c r="D6" s="4">
-        <f>A6-C6+1</f>
+        <f t="shared" si="0"/>
         <v>43194</v>
       </c>
       <c r="E6" s="4">
-        <f>D6*D6</f>
+        <f t="shared" si="1"/>
         <v>1865721636</v>
       </c>
       <c r="F6" s="4">
-        <f>C6*D6</f>
+        <f t="shared" si="2"/>
         <v>302358</v>
       </c>
       <c r="G6" s="5">
-        <f>(E6+F6)*B6/1000000000</f>
+        <f t="shared" si="3"/>
         <v>7.4640959760000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>175000</v>
       </c>
@@ -573,23 +579,23 @@
         <v>128</v>
       </c>
       <c r="D7" s="4">
-        <f>A7-C7+1</f>
+        <f t="shared" si="0"/>
         <v>174873</v>
       </c>
       <c r="E7" s="4">
-        <f>D7*D7</f>
+        <f t="shared" si="1"/>
         <v>30580566129</v>
       </c>
       <c r="F7" s="4">
-        <f>C7*D7</f>
+        <f t="shared" si="2"/>
         <v>22383744</v>
       </c>
       <c r="G7" s="5">
-        <f>(E7+F7)*B7/1000000000</f>
+        <f t="shared" si="3"/>
         <v>122.411799492</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>175000</v>
       </c>
@@ -600,20 +606,128 @@
         <v>1024</v>
       </c>
       <c r="D8" s="4">
-        <f>A8-C8+1</f>
+        <f t="shared" si="0"/>
         <v>173977</v>
       </c>
       <c r="E8" s="4">
-        <f>D8*D8</f>
+        <f t="shared" si="1"/>
         <v>30267996529</v>
       </c>
       <c r="F8" s="4">
-        <f>C8*D8</f>
+        <f t="shared" si="2"/>
         <v>178152448</v>
       </c>
       <c r="G8" s="5">
-        <f>(E8+F8)*B8/1000000000</f>
+        <f t="shared" si="3"/>
         <v>121.784595908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>90000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:D10" si="4">A9-C9+1</f>
+        <v>88977</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>7916906529</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" ref="F9:F10" si="5">C9*D9</f>
+        <v>91112448</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" ref="G9:G10" si="6">(E9+F9)*B9/1000000000</f>
+        <v>32.032075908000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>90000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>128</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="4"/>
+        <v>89873</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>8077156129</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="5"/>
+        <v>11503744</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="6"/>
+        <v>32.354639491999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>65000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ref="D11:D12" si="7">A11-C11+1</f>
+        <v>63977</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>4093056529</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:F12" si="8">C11*D11</f>
+        <v>65512448</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11:G12" si="9">(E11+F11)*B11/1000000000</f>
+        <v>16.634275907999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>65000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>128</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="7"/>
+        <v>64873</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>4208506129</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="8"/>
+        <v>8303744</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="9"/>
+        <v>16.867239492</v>
       </c>
     </row>
   </sheetData>

--- a/docs/расчеты размера.xlsx
+++ b/docs/расчеты размера.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\admin\Documents\discords_discovery\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA503A39-503F-4F60-AC70-360F6284C37B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C7AAC0-1929-4D58-A377-CF7266D50204}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,12 +74,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,7 +101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -110,6 +116,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -393,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +748,135 @@
         <v>16.867239492</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2299</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>128</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:D19" si="10">A13-C13+1</f>
+        <v>2172</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:E19" si="11">D13*D13</f>
+        <v>4717584</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13:F19" si="12">C13*D13</f>
+        <v>278016</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" ref="G13:G19" si="13">(E13+F13)*B13/1000000000</f>
+        <v>1.9982400000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>16090</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>128</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="10"/>
+        <v>15963</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="11"/>
+        <v>254817369</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="12"/>
+        <v>2043264</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="13"/>
+        <v>1.027442532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>32186</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>128</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="10"/>
+        <v>32059</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="11"/>
+        <v>1027779481</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="12"/>
+        <v>4103552</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="13"/>
+        <v>4.1275321319999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>60000</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>128</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="10"/>
+        <v>59873</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="11"/>
+        <v>3584776129</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="12"/>
+        <v>7663744</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="13"/>
+        <v>14.369759492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
